--- a/SimOperatingPoint/TestSingleGfl.xlsx
+++ b/SimOperatingPoint/TestSingleGfl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\TestDuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\SimOperatingPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFFE3E-FC3C-4591-B26B-9C75ABEE0A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A8273-FAFF-4DAA-A622-C76DEE1E7375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -765,7 +765,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -834,7 +834,8 @@
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
-        <v>1E-3</v>
+        <f>E5/5</f>
+        <v>0.01</v>
       </c>
       <c r="G5" s="2">
         <v>20</v>
@@ -843,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +941,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1054,7 +1055,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="F12">
         <v>0</v>
